--- a/Administration/Finances/Devis matériaux.xlsx
+++ b/Administration/Finances/Devis matériaux.xlsx
@@ -380,29 +380,29 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="18">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="16" applyFont="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="11" applyFont="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="17" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="18">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="16" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -818,8 +818,8 @@
   </sheetPr>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -836,14 +836,14 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="3"/>
@@ -853,7 +853,7 @@
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -864,7 +864,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -872,7 +872,7 @@
       </c>
       <c r="D5" s="7">
         <f ca="1">TODAY()</f>
-        <v>43089</v>
+        <v>43090</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -882,12 +882,12 @@
       <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="19" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="22"/>
+      <c r="B7" s="20"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -947,13 +947,13 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="25"/>
     </row>
     <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
@@ -967,7 +967,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="1"/>
@@ -976,7 +976,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="1"/>
@@ -985,7 +985,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="1"/>
@@ -994,7 +994,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="1"/>
@@ -1003,7 +1003,7 @@
       </c>
     </row>
     <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="1"/>
@@ -1012,16 +1012,16 @@
       </c>
     </row>
     <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="22" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="25">
+      <c r="D22" s="23">
         <v>1350</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="1"/>
@@ -1030,11 +1030,11 @@
       </c>
     </row>
     <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="22" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="25">
+      <c r="D24" s="23">
         <v>3250</v>
       </c>
     </row>
